--- a/Description.xlsx
+++ b/Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Point based analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3243A5E-7019-42C8-948B-8A20179FC612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF07D3C-94D3-47C3-BB00-8264BCB0D37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,23 +54,28 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>K-Nearest</t>
+  </si>
+  <si>
+    <t>Test_Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,10 +407,10 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -414,7 +419,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,7 +433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -444,7 +449,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -460,7 +465,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -476,37 +481,38 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>0.89</v>
+        <v>0.88095000000000001</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>0.9</v>
+        <v>0.90629999999999999</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>